--- a/rdf/spmile-01 (1).xlsx
+++ b/rdf/spmile-01 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrwong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://federationuniversity-my.sharepoint.com/personal/mr_wong_federation_edu_au/Documents/Documents/GitHub/def-au-spmile/rdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{138CD206-0D90-4E56-956E-95C582FEE7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{D5AC8EB9-8071-4A76-B872-2654FC0F547B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{824D6667-6D24-483B-BFF8-52FEFED4B2E6}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1230" windowWidth="15375" windowHeight="7875" xr2:uid="{F2E2DA99-18DB-42AB-8440-90F865B5D030}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2E2DA99-18DB-42AB-8440-90F865B5D030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="373">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -384,12 +384,6 @@
     <t>http://anzsoil.org/def/au/spm/spmile/02</t>
   </si>
   <si>
-    <t xml:space="preserve">PAGE No. x in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
-  </si>
-  <si>
-    <t>chapter author unless otherwise specified</t>
-  </si>
-  <si>
     <t>s:502.01</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>A collection of bulk density and pore space relations procedures</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/3</t>
-  </si>
-  <si>
     <t>s:503.01</t>
   </si>
   <si>
@@ -540,9 +531,6 @@
     <t>A collection of soil water characterisation procedures</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/4</t>
-  </si>
-  <si>
     <t>s:504.01</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
     <t>Water Repellence</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/5</t>
-  </si>
-  <si>
     <t>s:505.01</t>
   </si>
   <si>
@@ -591,9 +576,6 @@
     <t>s:07</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/7</t>
-  </si>
-  <si>
     <t>s:507.01</t>
   </si>
   <si>
@@ -606,9 +588,6 @@
     <t>s:08</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/8</t>
-  </si>
-  <si>
     <t>s:508.01</t>
   </si>
   <si>
@@ -624,9 +603,6 @@
     <t>Field Measurement of Saturated Hydraulic Conductivity Using the Well Permeameter</t>
   </si>
   <si>
-    <t>http://anzsoil.org/def/au/spm/spmile/9</t>
-  </si>
-  <si>
     <t>s:509.01</t>
   </si>
   <si>
@@ -1060,6 +1036,246 @@
   </si>
   <si>
     <t>http://anzsoil.org/def/au/spm/spmile/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.11-34 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t>NJ McKenzie and HP Cresswell</t>
+  </si>
+  <si>
+    <t>HP Cresswell and GJ Hamilton</t>
+  </si>
+  <si>
+    <t>HP Cresswell</t>
+  </si>
+  <si>
+    <t>DJ Carter</t>
+  </si>
+  <si>
+    <t>FJ Cook</t>
+  </si>
+  <si>
+    <t>NJ McKenzie, HP Cresswell and TW Green</t>
+  </si>
+  <si>
+    <t>DH Mackenzie</t>
+  </si>
+  <si>
+    <t>WW Emerson</t>
+  </si>
+  <si>
+    <t>P Rengasamy</t>
+  </si>
+  <si>
+    <t>J Leys, W Semple, M Raupach, P Findlater and GJ Hamilton</t>
+  </si>
+  <si>
+    <t>CJ Rosewell</t>
+  </si>
+  <si>
+    <t>GM Bowman and J Hutka</t>
+  </si>
+  <si>
+    <t>D McGarry</t>
+  </si>
+  <si>
+    <t>JM Kirby</t>
+  </si>
+  <si>
+    <t>CT Hignett</t>
+  </si>
+  <si>
+    <t>HR Cochrane and LAG Aylmore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.19 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.23 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.24 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.27 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.30 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.39 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.43 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.47 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.51 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.54 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.35-58 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.55 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp. 59-84 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.63 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.74 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.79 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.85-90 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.86 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.108-118 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.111 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.119-131 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.119 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.131-149 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.132 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.150-163 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.150 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.152 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.103 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.156 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.160 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.190-199 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.191 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.200-210 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.201 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.202 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.206 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.208 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.211-221 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.212 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.222-223 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.222 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.224-240 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.232 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.240-260 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.244 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p. 246 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.250 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.261-270 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.262 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.263 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.264 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.271-277 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.276 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pp.278-291 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.284 in Soil physical measurement and interpretation for land evaluation. Volume 5. Neil McKenzie, Kep Coughlan and Hamish Cresswell. https://catalogue.nla.gov.au/Record/2188013. ISBN 0643067671. </t>
+  </si>
+  <si>
+    <t>Field Measurement of the Unsaturated Hydraulic Conductivity Using Tension Infiltrometers</t>
+  </si>
+  <si>
+    <t>The Twin-Ring Method for Measuing Saturated Hydraulic Conducivity and Sorptivty in the Field</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/03</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/04</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/05</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/07</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/08</t>
+  </si>
+  <si>
+    <t>http://anzsoil.org/def/au/spm/spmile/09</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1400,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1240,7 +1467,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1342,6 +1569,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1681,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8948E8F-B831-462D-8C60-D19BDB303285}">
   <dimension ref="A1:N510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I49" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3"/>
@@ -2498,2387 +2731,2395 @@
       <c r="K50" s="28"/>
       <c r="L50" s="30"/>
       <c r="M50" s="31" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
         <v>77</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" t="s">
-        <v>79</v>
       </c>
       <c r="D51" s="32">
         <v>502.01</v>
       </c>
       <c r="E51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G51" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I51" s="33"/>
       <c r="J51" s="34"/>
       <c r="K51" s="34"/>
       <c r="L51" s="33"/>
       <c r="M51" s="31" t="s">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="N51" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D52" s="35">
         <v>502.02</v>
       </c>
       <c r="E52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G52" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I52" s="33"/>
       <c r="J52" s="34"/>
       <c r="K52" s="34"/>
       <c r="L52" s="33"/>
       <c r="M52" s="31" t="s">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="N52" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D53" s="36">
         <v>502.03</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I53" s="33"/>
       <c r="J53" s="34"/>
       <c r="K53" s="34"/>
       <c r="L53" s="33"/>
       <c r="M53" s="31" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D54" s="36">
         <v>502.04</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G54" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I54" s="33"/>
       <c r="J54" s="34"/>
       <c r="K54" s="34"/>
       <c r="L54" s="33"/>
       <c r="M54" s="31" t="s">
-        <v>75</v>
+        <v>313</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" s="36">
         <v>502.05</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G55" s="27" t="s">
         <v>70</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" s="34"/>
       <c r="K55" s="34"/>
       <c r="L55" s="33"/>
       <c r="M55" s="31" t="s">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D56" s="36"/>
       <c r="E56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>96</v>
+        <v>367</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="34"/>
       <c r="K56" s="34"/>
       <c r="L56" s="33"/>
       <c r="M56" s="31" t="s">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D57" s="36">
         <v>503.01</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I57" s="33"/>
       <c r="J57" s="34"/>
       <c r="K57" s="34"/>
       <c r="L57" s="33"/>
       <c r="M57" s="31" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D58" s="36">
         <v>503.02</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="34"/>
       <c r="K58" s="34"/>
       <c r="L58" s="33"/>
       <c r="M58" s="31" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D59" s="36">
         <v>503.03</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I59" s="33"/>
       <c r="J59" s="34"/>
       <c r="K59" s="34"/>
       <c r="L59" s="33"/>
       <c r="M59" s="31" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D60" s="36">
         <v>503.04</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I60" s="33"/>
       <c r="J60" s="34"/>
       <c r="K60" s="34"/>
       <c r="L60" s="33"/>
       <c r="M60" s="31" t="s">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="N60" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D61" s="36">
         <v>503.05</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I61" s="33"/>
       <c r="J61" s="34"/>
       <c r="K61" s="34"/>
       <c r="L61" s="33"/>
       <c r="M61" s="31" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="N61" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D62" s="36">
         <v>503.06</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="33"/>
       <c r="M62" s="31" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D63" s="36">
         <v>503.07</v>
       </c>
       <c r="E63" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="33"/>
       <c r="M63" s="31" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D64" s="36">
         <v>503.08</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I64" s="33"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="33"/>
       <c r="M64" s="31" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D65" s="36">
         <v>503.09</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I65" s="33"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="33"/>
       <c r="M65" s="31" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D66" s="36"/>
       <c r="E66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="I66" s="33"/>
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="33"/>
       <c r="M66" s="31" t="s">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D67" s="36">
         <v>504.01</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I67" s="33"/>
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="33"/>
       <c r="M67" s="31" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="N67" s="31" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:14" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D68" s="36">
         <v>504.02</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I68" s="33"/>
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="33"/>
       <c r="M68" s="31" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D69" s="36">
         <v>504.03</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I69" s="33"/>
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="33"/>
       <c r="M69" s="31" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D70" s="36"/>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F70"/>
       <c r="H70" s="33" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="I70" s="33"/>
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="33"/>
       <c r="M70" s="31" t="s">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D71" s="36">
         <v>505.01</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="H71" s="33" t="s">
-        <v>142</v>
       </c>
       <c r="I71" s="33"/>
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
       <c r="L71" s="33"/>
       <c r="M71" s="31" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>76</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C72"/>
+      <c r="C72" s="46" t="s">
+        <v>365</v>
+      </c>
       <c r="D72" s="36"/>
-      <c r="E72"/>
+      <c r="E72" s="46" t="s">
+        <v>365</v>
+      </c>
       <c r="F72"/>
       <c r="H72" s="33" t="s">
-        <v>144</v>
+        <v>370</v>
       </c>
       <c r="I72" s="33"/>
       <c r="J72" s="34"/>
       <c r="K72" s="34"/>
       <c r="L72" s="33"/>
       <c r="M72" s="31" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D73" s="36">
         <v>507.01</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H73" s="33" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I73" s="33"/>
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
       <c r="L73" s="33"/>
       <c r="M73" s="31" t="s">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="N73" s="31" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C74"/>
+      <c r="C74" s="45" t="s">
+        <v>366</v>
+      </c>
       <c r="D74" s="36"/>
-      <c r="E74"/>
+      <c r="E74" s="46" t="s">
+        <v>366</v>
+      </c>
       <c r="F74"/>
       <c r="H74" s="33" t="s">
-        <v>149</v>
+        <v>371</v>
       </c>
       <c r="I74" s="33"/>
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
       <c r="L74" s="33"/>
       <c r="M74" s="31" t="s">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="N74" s="31" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D75" s="36">
         <v>508.01</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H75" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I75" s="33"/>
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="33"/>
       <c r="M75" s="31" t="s">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D76" s="36"/>
       <c r="E76" s="38" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F76"/>
       <c r="H76" s="33" t="s">
-        <v>155</v>
+        <v>372</v>
       </c>
       <c r="I76" s="33"/>
       <c r="J76" s="34"/>
       <c r="K76" s="34"/>
       <c r="L76" s="33"/>
       <c r="M76" s="31" t="s">
-        <v>75</v>
+        <v>332</v>
       </c>
       <c r="N76" s="31" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D77" s="36">
         <v>509.01</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H77" s="33" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I77" s="33"/>
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
       <c r="L77" s="33"/>
       <c r="M77" s="31" t="s">
-        <v>75</v>
+        <v>333</v>
       </c>
       <c r="N77" s="31" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D78" s="36"/>
       <c r="E78" s="11" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F78"/>
       <c r="H78" s="33" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I78" s="33"/>
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
       <c r="L78" s="33"/>
       <c r="M78" s="31" t="s">
-        <v>75</v>
+        <v>334</v>
       </c>
       <c r="N78" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D79" s="36">
         <v>510.01</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H79" s="33" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I79" s="33"/>
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
       <c r="L79" s="33"/>
       <c r="M79" s="31" t="s">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="N79" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D80" s="36">
         <v>510.02</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="33" t="s">
         <v>159</v>
-      </c>
-      <c r="H80" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="I80" s="33"/>
       <c r="J80" s="34"/>
       <c r="K80" s="34"/>
       <c r="L80" s="33"/>
       <c r="M80" s="31" t="s">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D81" s="36">
         <v>510.03</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H81" s="33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I81" s="33"/>
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
       <c r="L81" s="33"/>
       <c r="M81" s="31" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="N81" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D82" s="36">
         <v>510.04</v>
       </c>
       <c r="E82" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H82" s="33" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I82" s="33"/>
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
       <c r="L82" s="33"/>
       <c r="M82" s="31" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="N82" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D83" s="36">
         <v>510.05</v>
       </c>
       <c r="E83" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H83" s="33" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I83" s="33"/>
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
       <c r="L83" s="33"/>
       <c r="M83" s="31" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="N83" s="31" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D84" s="36"/>
       <c r="E84" s="38" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F84"/>
       <c r="H84" s="33" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I84" s="33"/>
       <c r="J84" s="34"/>
       <c r="K84" s="34"/>
       <c r="L84" s="33"/>
       <c r="M84" s="31" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D85" s="36">
         <v>513.01</v>
       </c>
       <c r="E85" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H85" s="33" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I85" s="33"/>
       <c r="J85" s="34"/>
       <c r="K85" s="34"/>
       <c r="L85" s="33"/>
       <c r="M85" s="31" t="s">
-        <v>75</v>
+        <v>341</v>
       </c>
       <c r="N85" s="31" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D86" s="36"/>
       <c r="E86" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F86"/>
       <c r="H86" s="33" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I86" s="33"/>
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
       <c r="L86" s="33"/>
       <c r="M86" s="31" t="s">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C87" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D87" s="36">
         <v>514.01</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H87" s="33" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I87" s="33"/>
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
       <c r="L87" s="33"/>
       <c r="M87" s="31" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D88" s="36">
         <v>514.02</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88" s="33" t="s">
         <v>183</v>
-      </c>
-      <c r="H88" s="33" t="s">
-        <v>191</v>
       </c>
       <c r="I88" s="33"/>
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
       <c r="L88" s="33"/>
       <c r="M88" s="31" t="s">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="N88" s="31" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C89" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D89" s="36">
         <v>514.03</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H89" s="33" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I89" s="33"/>
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
       <c r="L89" s="33"/>
       <c r="M89" s="31" t="s">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="N89" s="31" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D90" s="36">
         <v>514.04</v>
       </c>
       <c r="E90" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H90" s="33" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I90" s="33"/>
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="33"/>
       <c r="M90" s="31" t="s">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="N90" s="31" t="s">
-        <v>76</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D91" s="36"/>
       <c r="E91" s="38" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F91"/>
       <c r="H91" s="33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I91" s="33"/>
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
       <c r="L91" s="33"/>
       <c r="M91" s="31" t="s">
-        <v>75</v>
+        <v>347</v>
       </c>
       <c r="N91" s="31" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D92" s="36">
         <v>515.01</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I92" s="33"/>
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
       <c r="L92" s="33"/>
       <c r="M92" s="31" t="s">
-        <v>75</v>
+        <v>348</v>
       </c>
       <c r="N92" s="31" t="s">
-        <v>76</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D93" s="36"/>
       <c r="E93" s="38" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93"/>
       <c r="H93" s="33" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I93" s="33"/>
       <c r="J93" s="34"/>
       <c r="K93" s="34"/>
       <c r="L93" s="33"/>
       <c r="M93" s="31" t="s">
-        <v>75</v>
+        <v>349</v>
       </c>
       <c r="N93" s="31" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D94" s="36">
         <v>516.01</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I94" s="33"/>
       <c r="J94" s="34"/>
       <c r="K94" s="34"/>
       <c r="L94" s="33"/>
       <c r="M94" s="31" t="s">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="N94" s="31" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D95" s="36"/>
       <c r="E95" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F95"/>
       <c r="H95" s="33" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I95" s="33"/>
       <c r="J95" s="34"/>
       <c r="K95" s="34"/>
       <c r="L95" s="33"/>
       <c r="M95" s="31" t="s">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="N95" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D96" s="36">
         <v>517.01</v>
       </c>
       <c r="E96" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H96" s="33" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I96" s="33"/>
       <c r="J96" s="34"/>
       <c r="K96" s="34"/>
       <c r="L96" s="33"/>
       <c r="M96" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N96" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D97" s="36">
         <v>517.02</v>
       </c>
       <c r="E97" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H97" s="33" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I97" s="33"/>
       <c r="J97" s="34"/>
       <c r="K97" s="34"/>
       <c r="L97" s="33"/>
       <c r="M97" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N97" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="98" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D98" s="36">
         <v>517.03</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H98" s="33" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I98" s="33"/>
       <c r="J98" s="34"/>
       <c r="K98" s="34"/>
       <c r="L98" s="33"/>
       <c r="M98" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N98" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D99" s="36">
         <v>517.04</v>
       </c>
       <c r="E99" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H99" s="33" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="34"/>
       <c r="K99" s="34"/>
       <c r="L99" s="33"/>
       <c r="M99" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N99" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D100" s="36">
         <v>517.04999999999995</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="34"/>
       <c r="K100" s="34"/>
       <c r="L100" s="33"/>
       <c r="M100" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N100" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D101" s="36">
         <v>517.05999999999995</v>
       </c>
       <c r="E101" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="34"/>
       <c r="K101" s="34"/>
       <c r="L101" s="33"/>
       <c r="M101" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N101" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D102" s="36">
         <v>517.07000000000005</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="I102" s="33"/>
       <c r="J102" s="34"/>
       <c r="K102" s="34"/>
       <c r="L102" s="33"/>
       <c r="M102" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N102" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D103" s="36">
         <v>517.08000000000004</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H103" s="33" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I103" s="33"/>
       <c r="J103" s="34"/>
       <c r="K103" s="34"/>
       <c r="L103" s="33"/>
       <c r="M103" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N103" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D104" s="36">
         <v>517.09</v>
       </c>
       <c r="E104" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H104" s="33" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="I104" s="33"/>
       <c r="J104" s="34"/>
       <c r="K104" s="34"/>
       <c r="L104" s="33"/>
       <c r="M104" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N104" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D105" s="36">
         <v>517.1</v>
       </c>
       <c r="E105" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F105"/>
       <c r="G105" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H105" s="33" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I105" s="33"/>
       <c r="J105" s="34"/>
       <c r="K105" s="34"/>
       <c r="L105" s="33"/>
       <c r="M105" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N105" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D106" s="36">
         <v>517.11</v>
       </c>
       <c r="E106" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H106" s="33" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I106" s="33"/>
       <c r="J106" s="34"/>
       <c r="K106" s="34"/>
       <c r="L106" s="33"/>
       <c r="M106" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N106" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="107" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D107" s="36">
         <v>517.12</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H107" s="33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I107" s="33"/>
       <c r="J107" s="34"/>
       <c r="K107" s="34"/>
       <c r="L107" s="33"/>
       <c r="M107" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N107" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D108" s="36">
         <v>517.13</v>
       </c>
       <c r="E108" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H108" s="33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I108" s="33"/>
       <c r="J108" s="34"/>
       <c r="K108" s="34"/>
       <c r="L108" s="33"/>
       <c r="M108" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N108" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="109" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D109" s="36">
         <v>517.14</v>
       </c>
       <c r="E109" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H109" s="33" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I109" s="33"/>
       <c r="J109" s="34"/>
       <c r="K109" s="34"/>
       <c r="L109" s="33"/>
       <c r="M109" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N109" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D110" s="36">
         <v>517.15</v>
       </c>
       <c r="E110" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H110" s="33" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I110" s="33"/>
       <c r="J110" s="34"/>
       <c r="K110" s="34"/>
       <c r="L110" s="33"/>
       <c r="M110" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N110" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D111" s="36">
         <v>517.16</v>
       </c>
       <c r="E111" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F111"/>
       <c r="G111" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H111" s="33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I111" s="33"/>
       <c r="J111" s="34"/>
       <c r="K111" s="34"/>
       <c r="L111" s="33"/>
       <c r="M111" s="31" t="s">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="N111" s="31" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D112" s="36"/>
       <c r="E112" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F112"/>
       <c r="H112" s="33" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I112" s="33"/>
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
       <c r="L112" s="33"/>
       <c r="M112" s="31" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="N112" s="31" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D113" s="36">
         <v>518.01</v>
       </c>
       <c r="E113" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H113" s="33" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I113" s="33"/>
       <c r="J113" s="34"/>
       <c r="K113" s="34"/>
       <c r="L113" s="33"/>
       <c r="M113" s="31" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="N113" s="31" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D114" s="36">
         <v>518.02</v>
       </c>
       <c r="E114" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H114" s="33" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="I114" s="33"/>
       <c r="J114" s="34"/>
       <c r="K114" s="34"/>
       <c r="L114" s="33"/>
       <c r="M114" s="31" t="s">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="N114" s="31" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
     <row r="115" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C115" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D115" s="36">
         <v>518.03</v>
       </c>
       <c r="E115" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H115" s="33" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I115" s="33"/>
       <c r="J115" s="34"/>
       <c r="K115" s="34"/>
       <c r="L115" s="33"/>
       <c r="M115" s="31" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="N115" s="31" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
     </row>
     <row r="116" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D116" s="36"/>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F116"/>
       <c r="H116" s="33" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="I116" s="33"/>
       <c r="J116" s="34"/>
       <c r="K116" s="34"/>
       <c r="L116" s="33"/>
       <c r="M116" s="31" t="s">
-        <v>75</v>
+        <v>357</v>
       </c>
       <c r="N116" s="31" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C117" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D117" s="36">
         <v>519.01</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H117" s="33" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I117" s="33"/>
       <c r="J117" s="34"/>
       <c r="K117" s="34"/>
       <c r="L117" s="33"/>
       <c r="M117" s="31" t="s">
-        <v>75</v>
+        <v>358</v>
       </c>
       <c r="N117" s="31" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D118" s="36">
         <v>519.02</v>
       </c>
       <c r="E118" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F118"/>
       <c r="G118" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I118" s="33"/>
       <c r="J118" s="34"/>
       <c r="K118" s="34"/>
       <c r="L118" s="33"/>
       <c r="M118" s="31" t="s">
-        <v>75</v>
+        <v>359</v>
       </c>
       <c r="N118" s="31" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D119" s="36">
         <v>519.03</v>
       </c>
       <c r="E119" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F119"/>
       <c r="G119" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I119" s="33"/>
       <c r="J119" s="34"/>
       <c r="K119" s="34"/>
       <c r="L119" s="33"/>
       <c r="M119" s="31" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="N119" s="31" t="s">
-        <v>76</v>
+        <v>307</v>
       </c>
     </row>
     <row r="120" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D120" s="36"/>
       <c r="E120" s="38" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F120"/>
       <c r="H120" s="33" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I120" s="33"/>
       <c r="J120" s="34"/>
       <c r="K120" s="34"/>
       <c r="L120" s="33"/>
       <c r="M120" s="31" t="s">
-        <v>75</v>
+        <v>361</v>
       </c>
       <c r="N120" s="31" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D121" s="36">
         <v>520.01</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="F121"/>
       <c r="G121" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="I121" s="33"/>
       <c r="J121" s="34"/>
       <c r="K121" s="34"/>
       <c r="L121" s="33"/>
       <c r="M121" s="31" t="s">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="N121" s="31" t="s">
-        <v>76</v>
+        <v>308</v>
       </c>
     </row>
     <row r="122" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D122" s="36"/>
       <c r="E122" s="38" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F122"/>
       <c r="H122" s="33" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I122" s="33"/>
       <c r="J122" s="34"/>
       <c r="K122" s="34"/>
       <c r="L122" s="33"/>
       <c r="M122" s="31" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="N122" s="31" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D123" s="36">
         <v>521.01</v>
       </c>
       <c r="E123" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="F123"/>
       <c r="G123" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="I123" s="33"/>
       <c r="J123" s="34"/>
       <c r="K123" s="34"/>
       <c r="L123" s="33"/>
       <c r="M123" s="31" t="s">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="N123" s="31" t="s">
-        <v>76</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7029,8 +7270,42 @@
     <hyperlink ref="B46" r:id="rId15" xr:uid="{D1BA053E-1092-4A2E-865B-4FDC3CD89A56}"/>
     <hyperlink ref="H50" r:id="rId16" xr:uid="{17056A54-C412-4376-9D78-2EEEF0732224}"/>
     <hyperlink ref="H105" r:id="rId17" xr:uid="{E41E3D5F-DD94-4E2C-A481-5864F014AF43}"/>
+    <hyperlink ref="H65" r:id="rId18" xr:uid="{0DB9E2F6-0D0E-433B-95CB-4CAFBEC9A668}"/>
+    <hyperlink ref="H67" r:id="rId19" xr:uid="{B363E4B4-FA7F-4A3A-8A86-ABD4835CCEFE}"/>
+    <hyperlink ref="H68" r:id="rId20" xr:uid="{BB98B4BC-65BA-4765-83CF-9B0A67EB8533}"/>
+    <hyperlink ref="H69" r:id="rId21" xr:uid="{CA49D677-5918-4E33-B6BA-4C2BF464BD9D}"/>
+    <hyperlink ref="H71" r:id="rId22" xr:uid="{61F89DA4-A971-42EB-B107-01F763A4CF24}"/>
+    <hyperlink ref="H73" r:id="rId23" xr:uid="{49EFFDDB-4AA9-42F9-8CAA-4140E8248411}"/>
+    <hyperlink ref="H77" r:id="rId24" xr:uid="{EC396806-E19B-4238-BC79-78F44CFE888D}"/>
+    <hyperlink ref="H94" r:id="rId25" xr:uid="{34E6ECBC-6929-4323-8753-18EB52EA5122}"/>
+    <hyperlink ref="H79" r:id="rId26" xr:uid="{B7796460-03FF-413D-B6D9-1F2058687747}"/>
+    <hyperlink ref="H80" r:id="rId27" xr:uid="{529F9FE4-2438-4A88-949E-32F58D09055D}"/>
+    <hyperlink ref="H81" r:id="rId28" xr:uid="{CEDD0A99-20B6-46F1-8966-4C25066EE016}"/>
+    <hyperlink ref="H82" r:id="rId29" xr:uid="{A8845516-7543-4FEE-B075-BB32B336361B}"/>
+    <hyperlink ref="H83" r:id="rId30" xr:uid="{DC45114D-FEFD-4323-9734-6CF56ED5FFD7}"/>
+    <hyperlink ref="H85" r:id="rId31" xr:uid="{392DEF98-DE6B-4E5E-AF19-58134D58044D}"/>
+    <hyperlink ref="H87" r:id="rId32" xr:uid="{F765FECC-FEBB-408C-9702-80D0D45AF955}"/>
+    <hyperlink ref="H88" r:id="rId33" xr:uid="{D8DCD3FD-4D84-4292-9D6F-FBBFC61EE35A}"/>
+    <hyperlink ref="H89" r:id="rId34" xr:uid="{B0ADE4FC-0DAF-4355-87C1-785CA42E8E1E}"/>
+    <hyperlink ref="H90" r:id="rId35" xr:uid="{3317A156-F648-45C8-B3A2-74983272F26B}"/>
+    <hyperlink ref="H92" r:id="rId36" xr:uid="{424E4812-2ADD-4073-BB96-4F8A013C7FB0}"/>
+    <hyperlink ref="H96" r:id="rId37" xr:uid="{0AB5F7AC-DA73-4036-8431-7F81524A9C58}"/>
+    <hyperlink ref="H113" r:id="rId38" xr:uid="{539F2B90-7855-4F05-B67D-2AC7651AF64E}"/>
+    <hyperlink ref="H114" r:id="rId39" xr:uid="{A0940BFC-7642-4A99-8869-64B3E7DF4D5A}"/>
+    <hyperlink ref="H115" r:id="rId40" xr:uid="{70ADE35F-F2F4-4C8E-A87E-A57960CA392D}"/>
+    <hyperlink ref="H117" r:id="rId41" xr:uid="{C29E40D5-F3B0-45D9-A78B-4394167BCE0D}"/>
+    <hyperlink ref="H119" r:id="rId42" xr:uid="{7926BA3C-EA1B-4568-B8A6-71F3ABA11209}"/>
+    <hyperlink ref="H121" r:id="rId43" xr:uid="{5B493345-213C-4F56-8883-3177A10D199E}"/>
+    <hyperlink ref="H123" r:id="rId44" xr:uid="{FA606D6C-43FD-4495-A5C5-9B3A7949CC73}"/>
+    <hyperlink ref="H56" r:id="rId45" xr:uid="{B40F9D70-AE05-4DD4-A5E9-3A48C9EAE3A0}"/>
+    <hyperlink ref="H66" r:id="rId46" xr:uid="{F73261A8-63A8-4B13-B755-1BAB18DCE7F6}"/>
+    <hyperlink ref="H70" r:id="rId47" xr:uid="{F2785B4A-BF76-4547-86C6-AB4E40C4FC74}"/>
+    <hyperlink ref="H72" r:id="rId48" xr:uid="{13C436E2-81F1-486A-8EDB-EF5428C58910}"/>
+    <hyperlink ref="H74" r:id="rId49" xr:uid="{DE0333E5-B8A4-4FE5-90D7-193E57672803}"/>
+    <hyperlink ref="H76" r:id="rId50" xr:uid="{FFBDE310-3FCE-47AA-9E89-F58BE6E33C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <legacyDrawing r:id="rId52"/>
 </worksheet>
 </file>